--- a/assets/Arizona.xlsx
+++ b/assets/Arizona.xlsx
@@ -48096,6 +48096,9 @@
       <c r="H644" t="str">
         <v>https://www.yelp.com/biz/pho-bar-central-phoenix-3?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I644" t="str">
+        <v>http://www.phobarcentral.com/index.php/</v>
+      </c>
     </row>
     <row r="645">
       <c r="A645" t="str">
@@ -48296,6 +48299,9 @@
       <c r="H651" t="str">
         <v>https://www.yelp.com/biz/el-horseshoe-restaurant-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I651" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="652">
       <c r="A652" t="str">
@@ -48409,6 +48415,9 @@
       <c r="H655" t="str">
         <v>https://www.yelp.com/biz/chen-and-wok-phoenix-3?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I655" t="str">
+        <v>http://www.chenwok1.com</v>
+      </c>
     </row>
     <row r="656">
       <c r="A656" t="str">
@@ -48464,6 +48473,9 @@
       <c r="H657" t="str">
         <v>https://www.yelp.com/biz/phx-eats-cafe-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I657" t="str">
+        <v>http://www.phxeats.com</v>
+      </c>
     </row>
     <row r="658">
       <c r="A658" t="str">
@@ -48490,6 +48502,9 @@
       <c r="H658" t="str">
         <v>https://www.yelp.com/biz/cold-beers-and-cheeseburgers-phoenix-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I658" t="str">
+        <v>http://www.coldbeers.com/restaurants/7th-street</v>
+      </c>
     </row>
     <row r="659">
       <c r="A659" t="str">
@@ -48545,6 +48560,9 @@
       <c r="H660" t="str">
         <v>https://www.yelp.com/biz/the-henry-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I660" t="str">
+        <v>https://www.thehenryrestaurant.com</v>
+      </c>
     </row>
     <row r="661">
       <c r="A661" t="str">
@@ -48571,6 +48589,9 @@
       <c r="H661" t="str">
         <v>https://www.yelp.com/biz/mod-pizza-phoenix-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I661" t="str">
+        <v>https://modpizza.com/locations/44th-indian/?utm_source=yelp&amp;utm_medium=referral&amp;utm_campaign=yelplistingbusiness</v>
+      </c>
     </row>
     <row r="662">
       <c r="A662" t="str">
@@ -48597,6 +48618,9 @@
       <c r="H662" t="str">
         <v>https://www.yelp.com/biz/familia-loritos-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I662" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="663">
       <c r="A663" t="str">
@@ -48623,6 +48647,9 @@
       <c r="H663" t="str">
         <v>https://www.yelp.com/biz/sergio-el-pollo-feliz-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I663" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="664">
       <c r="A664" t="str">
@@ -48649,6 +48676,9 @@
       <c r="H664" t="str">
         <v>https://www.yelp.com/biz/diner-50-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I664" t="str">
+        <v>https://diner-50-diner.business.site</v>
+      </c>
     </row>
     <row r="665">
       <c r="A665" t="str">
@@ -48675,6 +48705,9 @@
       <c r="H665" t="str">
         <v>https://www.yelp.com/biz/in-perfetto-gelateria-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I665" t="str">
+        <v>https://in-perfetto.com</v>
+      </c>
     </row>
     <row r="666">
       <c r="A666" t="str">
@@ -48701,6 +48734,9 @@
       <c r="H666" t="str">
         <v>https://www.yelp.com/biz/choon-burritos-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I666" t="str">
+        <v>http://www.choonburritos.com</v>
+      </c>
     </row>
     <row r="667">
       <c r="A667" t="str">
@@ -48727,6 +48763,9 @@
       <c r="H667" t="str">
         <v>https://www.yelp.com/biz/jps-dog-house-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I667" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="668">
       <c r="A668" t="str">
@@ -48753,6 +48792,9 @@
       <c r="H668" t="str">
         <v>https://www.yelp.com/biz/rosie-mccaffreys-irish-pub-and-restaurant-phoenix-4?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I668" t="str">
+        <v>http://www.rosiemccaffreys.com</v>
+      </c>
     </row>
     <row r="669">
       <c r="A669" t="str">
@@ -48779,6 +48821,9 @@
       <c r="H669" t="str">
         <v>https://www.yelp.com/biz/the-liberty-kitchen-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I669" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="670">
       <c r="A670" t="str">
@@ -48805,6 +48850,9 @@
       <c r="H670" t="str">
         <v>https://www.yelp.com/biz/little-jamaica-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I670" t="str">
+        <v>http://www.TheReggae411.com/little-jamaica</v>
+      </c>
     </row>
     <row r="671">
       <c r="A671" t="str">
@@ -48831,6 +48879,9 @@
       <c r="H671" t="str">
         <v>https://www.yelp.com/biz/barros-pizza-phoenix-24?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I671" t="str">
+        <v>https://barrospizza.com</v>
+      </c>
     </row>
     <row r="672">
       <c r="A672" t="str">
@@ -48857,6 +48908,9 @@
       <c r="H672" t="str">
         <v>https://www.yelp.com/biz/garcias-phoenix-5?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I672" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="673">
       <c r="A673" t="str">
@@ -48883,6 +48937,9 @@
       <c r="H673" t="str">
         <v>https://www.yelp.com/biz/24th-street-pizza-and-gyros-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I673" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="674">
       <c r="A674" t="str">
@@ -48909,6 +48966,9 @@
       <c r="H674" t="str">
         <v>https://www.yelp.com/biz/schlotzskys-phoenix-6?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I674" t="str">
+        <v>https://www.schlotzskys.com/arizona/phoenix/1444</v>
+      </c>
     </row>
     <row r="675">
       <c r="A675" t="str">
@@ -48935,6 +48995,9 @@
       <c r="H675" t="str">
         <v>https://www.yelp.com/biz/zeez-grill-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I675" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="676">
       <c r="A676" t="str">
@@ -48961,6 +49024,9 @@
       <c r="H676" t="str">
         <v>https://www.yelp.com/biz/burger-shoppe-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I676" t="str">
+        <v>http://www.azburgershoppe.com</v>
+      </c>
     </row>
     <row r="677">
       <c r="A677" t="str">
@@ -48987,6 +49053,9 @@
       <c r="H677" t="str">
         <v>https://www.yelp.com/biz/taqueria-el-compadre-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I677" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="678">
       <c r="A678" t="str">
@@ -49013,6 +49082,9 @@
       <c r="H678" t="str">
         <v>https://www.yelp.com/biz/keegans-grill-phoenix-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I678" t="str">
+        <v>http://keegansgrill.com/</v>
+      </c>
     </row>
     <row r="679">
       <c r="A679" t="str">
@@ -49039,6 +49111,9 @@
       <c r="H679" t="str">
         <v>https://www.yelp.com/biz/mos-chicken-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I679" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="680">
       <c r="A680" t="str">
@@ -49065,6 +49140,9 @@
       <c r="H680" t="str">
         <v>https://www.yelp.com/biz/the-original-burrito-phoenix-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I680" t="str">
+        <v>http://www.burritocompany.com/</v>
+      </c>
     </row>
     <row r="681">
       <c r="A681" t="str">
@@ -49091,6 +49169,9 @@
       <c r="H681" t="str">
         <v>https://www.yelp.com/biz/tranquilo-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I681" t="str">
+        <v>http://goclarendon.com/restaurant</v>
+      </c>
     </row>
     <row r="682">
       <c r="A682" t="str">
@@ -49117,6 +49198,9 @@
       <c r="H682" t="str">
         <v>https://www.yelp.com/biz/four-peaks-brewing-company-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I682" t="str">
+        <v>http://www.fourpeaks.com</v>
+      </c>
     </row>
     <row r="683">
       <c r="A683" t="str">
@@ -49143,6 +49227,9 @@
       <c r="H683" t="str">
         <v>https://www.yelp.com/biz/imperial-kosher-market-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I683" t="str">
+        <v>http://www.imperialkosher.com/</v>
+      </c>
     </row>
     <row r="684">
       <c r="A684" t="str">
@@ -49169,6 +49256,9 @@
       <c r="H684" t="str">
         <v>https://www.yelp.com/biz/mariscos-y-barbacoa-la-bella-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I684" t="str">
+        <v>http://www.labellaseafood.com</v>
+      </c>
     </row>
     <row r="685">
       <c r="A685" t="str">
@@ -49195,6 +49285,9 @@
       <c r="H685" t="str">
         <v>https://www.yelp.com/biz/tokyo-express-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I685" t="str">
+        <v>http://www.tokyoexpressaz.com</v>
+      </c>
     </row>
     <row r="686">
       <c r="A686" t="str">
@@ -49221,6 +49314,9 @@
       <c r="H686" t="str">
         <v>https://www.yelp.com/biz/sunup-brewing-phoenix-3?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I686" t="str">
+        <v>http://sunup.beer</v>
+      </c>
     </row>
     <row r="687">
       <c r="A687" t="str">
@@ -49247,6 +49343,9 @@
       <c r="H687" t="str">
         <v>https://www.yelp.com/biz/potbelly-sandwich-shop-phoenix-4?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I687" t="str">
+        <v>http://www.potbelly.com/CityScape?utm_source=ExtNet&amp;utm_medium=organic&amp;utm_campaign=Yext</v>
+      </c>
     </row>
     <row r="688">
       <c r="A688" t="str">
@@ -49273,6 +49372,9 @@
       <c r="H688" t="str">
         <v>https://www.yelp.com/biz/blaze-fast-fired-pizza-phoenix-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I688" t="str">
+        <v>http://www.blazepizza.com</v>
+      </c>
     </row>
     <row r="689">
       <c r="A689" t="str">
@@ -49299,6 +49401,9 @@
       <c r="H689" t="str">
         <v>https://www.yelp.com/biz/dickeys-barbecue-pit-phoenix-5?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I689" t="str">
+        <v>https://www.dickeys.com</v>
+      </c>
     </row>
     <row r="690">
       <c r="A690" t="str">
@@ -49325,6 +49430,9 @@
       <c r="H690" t="str">
         <v>https://www.yelp.com/biz/burger-shoppe-phoenix-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I690" t="str">
+        <v>http://www.burgershoppeaz.com</v>
+      </c>
     </row>
     <row r="691">
       <c r="A691" t="str">
@@ -49351,6 +49459,9 @@
       <c r="H691" t="str">
         <v>https://www.yelp.com/biz/jts-bar-and-grill-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I691" t="str">
+        <v>http://jtsarcadia.com</v>
+      </c>
     </row>
     <row r="692">
       <c r="A692" t="str">
@@ -49377,6 +49488,9 @@
       <c r="H692" t="str">
         <v>https://www.yelp.com/biz/the-park-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I692" t="str">
+        <v>http://thepark.bar</v>
+      </c>
     </row>
     <row r="693">
       <c r="A693" t="str">
@@ -49403,6 +49517,9 @@
       <c r="H693" t="str">
         <v>https://www.yelp.com/biz/chick-fil-a-phoenix-9?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I693" t="str">
+        <v>https://www.chick-fil-a.com/camelbackand16street</v>
+      </c>
     </row>
     <row r="694">
       <c r="A694" t="str">
@@ -49429,6 +49546,9 @@
       <c r="H694" t="str">
         <v>https://www.yelp.com/biz/sakura-sushi-phoenix-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I694" t="str">
+        <v>http://www.sakurasushiphoenix.com</v>
+      </c>
     </row>
     <row r="695">
       <c r="A695" t="str">
@@ -49455,6 +49575,9 @@
       <c r="H695" t="str">
         <v>https://www.yelp.com/biz/rev-cafe-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I695" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="696">
       <c r="A696" t="str">
@@ -49481,6 +49604,9 @@
       <c r="H696" t="str">
         <v>https://www.yelp.com/biz/la-pasadita-hot-dogs-phoenix-6?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I696" t="str">
+        <v>http://lapasaditahotdogs.com</v>
+      </c>
     </row>
     <row r="697">
       <c r="A697" t="str">
@@ -49507,6 +49633,9 @@
       <c r="H697" t="str">
         <v>https://www.yelp.com/biz/lunch-time-cafe-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I697" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="698">
       <c r="A698" t="str">
@@ -49533,6 +49662,9 @@
       <c r="H698" t="str">
         <v>https://www.yelp.com/biz/the-habit-burger-grill-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I698" t="str">
+        <v>http://www.habitburger.com/</v>
+      </c>
     </row>
     <row r="699">
       <c r="A699" t="str">
@@ -49559,6 +49691,9 @@
       <c r="H699" t="str">
         <v>https://www.yelp.com/biz/tacos-y-mariscos-sinaloa-phoenix-3?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I699" t="str">
+        <v>https://www.tacosymariscossinaloaaz.com</v>
+      </c>
     </row>
     <row r="700">
       <c r="A700" t="str">
@@ -49585,6 +49720,9 @@
       <c r="H700" t="str">
         <v>https://www.yelp.com/biz/dvina-modern-fare-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I700" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="701">
       <c r="A701" t="str">
@@ -49611,6 +49749,9 @@
       <c r="H701" t="str">
         <v>https://www.yelp.com/biz/majerles-sports-grill-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I701" t="str">
+        <v>https://majerles.com/locations/downtown/</v>
+      </c>
     </row>
     <row r="702">
       <c r="A702" t="str">
@@ -49637,6 +49778,9 @@
       <c r="H702" t="str">
         <v>https://www.yelp.com/biz/tacos-mexico-phoenix-5?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I702" t="str">
+        <v>http://www.tacosmexico.com</v>
+      </c>
     </row>
     <row r="703">
       <c r="A703" t="str">
@@ -49663,6 +49807,9 @@
       <c r="H703" t="str">
         <v>https://www.yelp.com/biz/central-cafe-and-market-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I703" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="704">
       <c r="A704" t="str">
@@ -49689,6 +49836,9 @@
       <c r="H704" t="str">
         <v>https://www.yelp.com/biz/taberna-de-tequilla-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I704" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="705">
       <c r="A705" t="str">
@@ -49715,6 +49865,9 @@
       <c r="H705" t="str">
         <v>https://www.yelp.com/biz/the-corner-deli-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I705" t="str">
+        <v>http://www.mdldeli.com</v>
+      </c>
     </row>
     <row r="706">
       <c r="A706" t="str">
@@ -49741,6 +49894,9 @@
       <c r="H706" t="str">
         <v>https://www.yelp.com/biz/jordans-mexican-food-phoenix-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I706" t="str">
+        <v>https://www.jordansmexicanfood.com</v>
+      </c>
     </row>
     <row r="707">
       <c r="A707" t="str">
@@ -49767,6 +49923,9 @@
       <c r="H707" t="str">
         <v>https://www.yelp.com/biz/what-a-sub-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I707" t="str">
+        <v>http://www.whatasub.com/</v>
+      </c>
     </row>
     <row r="708">
       <c r="A708" t="str">
@@ -49793,6 +49952,9 @@
       <c r="H708" t="str">
         <v>https://www.yelp.com/biz/chelseas-kitchen-phoenix-3?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I708" t="str">
+        <v>http://www.chelseaskitchenaz.com</v>
+      </c>
     </row>
     <row r="709">
       <c r="A709" t="str">
@@ -49819,6 +49981,9 @@
       <c r="H709" t="str">
         <v>https://www.yelp.com/biz/rubios-coastal-grill-phoenix-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I709" t="str">
+        <v>https://www.rubios.com</v>
+      </c>
     </row>
     <row r="710">
       <c r="A710" t="str">
@@ -49845,6 +50010,9 @@
       <c r="H710" t="str">
         <v>https://www.yelp.com/biz/panaderia-y-tortilleria-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I710" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="711">
       <c r="A711" t="str">
@@ -49871,6 +50039,9 @@
       <c r="H711" t="str">
         <v>https://www.yelp.com/biz/the-original-phoenix-greek-festival-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I711" t="str">
+        <v>http://phoenixgreekfestival.org</v>
+      </c>
     </row>
     <row r="712">
       <c r="A712" t="str">
@@ -49897,6 +50068,9 @@
       <c r="H712" t="str">
         <v>https://www.yelp.com/biz/carniceria-castillo-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I712" t="str">
+        <v>https://carniceria-castillo-butcher-shop.business.site/?m=true</v>
+      </c>
     </row>
     <row r="713">
       <c r="A713" t="str">
@@ -49923,6 +50097,9 @@
       <c r="H713" t="str">
         <v>https://www.yelp.com/biz/labella-pizzeria-and-restaurant-phoenix-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I713" t="str">
+        <v>http://labellakosher.com</v>
+      </c>
     </row>
     <row r="714">
       <c r="A714" t="str">
@@ -49949,6 +50126,9 @@
       <c r="H714" t="str">
         <v>https://www.yelp.com/biz/la-taqueria-de-jalisco-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I714" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="715">
       <c r="A715" t="str">
@@ -49975,6 +50155,9 @@
       <c r="H715" t="str">
         <v>https://www.yelp.com/biz/el-pacifico-restaurante-y-pescaderia-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I715" t="str">
+        <v>http://elpacificoseafood.com</v>
+      </c>
     </row>
     <row r="716">
       <c r="A716" t="str">
@@ -50001,6 +50184,9 @@
       <c r="H716" t="str">
         <v>https://www.yelp.com/biz/five-guys-phoenix-11?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I716" t="str">
+        <v>http://fiveguys.com/</v>
+      </c>
     </row>
     <row r="717">
       <c r="A717" t="str">
@@ -50027,6 +50213,9 @@
       <c r="H717" t="str">
         <v>https://www.yelp.com/biz/la-carreta-de-lily-phoenix-4?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I717" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="718">
       <c r="A718" t="str">
@@ -50053,6 +50242,9 @@
       <c r="H718" t="str">
         <v>https://www.yelp.com/biz/jays-gyros-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I718" t="str">
+        <v>http://www.jaysgyros.com</v>
+      </c>
     </row>
     <row r="719">
       <c r="A719" t="str">
@@ -50079,6 +50271,9 @@
       <c r="H719" t="str">
         <v>https://www.yelp.com/biz/baja-fresh-phoenix-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I719" t="str">
+        <v>https://www.bajafresh.com/stores/30705</v>
+      </c>
     </row>
     <row r="720">
       <c r="A720" t="str">
@@ -50105,6 +50300,9 @@
       <c r="H720" t="str">
         <v>https://www.yelp.com/biz/mels-diner-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I720" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="721">
       <c r="A721" t="str">
@@ -50131,6 +50329,9 @@
       <c r="H721" t="str">
         <v>https://www.yelp.com/biz/mission-possible-cafe-a-nonprofit-restaurant-phoenix-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I721" t="str">
+        <v>http://missionpossiblecafe.com</v>
+      </c>
     </row>
     <row r="722">
       <c r="A722" t="str">
@@ -50157,6 +50358,9 @@
       <c r="H722" t="str">
         <v>https://www.yelp.com/biz/zpizza-phoenix-midtown-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I722" t="str">
+        <v>http://www.zpizza.com</v>
+      </c>
     </row>
     <row r="723">
       <c r="A723" t="str">
@@ -50183,6 +50387,9 @@
       <c r="H723" t="str">
         <v>https://www.yelp.com/biz/cowboy-ciao-phoenix-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I723" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="724">
       <c r="A724" t="str">
@@ -50209,6 +50416,9 @@
       <c r="H724" t="str">
         <v>https://www.yelp.com/biz/greenmix-phoenix-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I724" t="str">
+        <v>http://www.eatatgreenmix.com</v>
+      </c>
     </row>
     <row r="725">
       <c r="A725" t="str">
@@ -50235,6 +50445,9 @@
       <c r="H725" t="str">
         <v>https://www.yelp.com/biz/saint-pasta-phoenix-3?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I725" t="str">
+        <v>http://saintpasta.com</v>
+      </c>
     </row>
     <row r="726">
       <c r="A726" t="str">
@@ -50261,6 +50474,9 @@
       <c r="H726" t="str">
         <v>https://www.yelp.com/biz/the-adobe-restaurant-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I726" t="str">
+        <v>http://www.theadoberestaurant.com/</v>
+      </c>
     </row>
     <row r="727">
       <c r="A727" t="str">
@@ -50287,6 +50503,9 @@
       <c r="H727" t="str">
         <v>https://www.yelp.com/biz/kwan-and-wok-chinese-restaurant-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I727" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="728">
       <c r="A728" t="str">
@@ -50313,6 +50532,9 @@
       <c r="H728" t="str">
         <v>https://www.yelp.com/biz/yins-chinese-resturant-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I728" t="str">
+        <v>http://www.yinschinesephoenix.com</v>
+      </c>
     </row>
     <row r="729">
       <c r="A729" t="str">
@@ -50339,6 +50561,9 @@
       <c r="H729" t="str">
         <v>https://www.yelp.com/biz/pho-vinh-long-phoenix-3?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I729" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="730">
       <c r="A730" t="str">
@@ -50365,6 +50590,9 @@
       <c r="H730" t="str">
         <v>https://www.yelp.com/biz/sinbads-restaurant-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I730" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="731">
       <c r="A731" t="str">
@@ -50391,6 +50619,9 @@
       <c r="H731" t="str">
         <v>https://www.yelp.com/biz/rallys-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I731" t="str">
+        <v>https://locations.rallys.com/az/phoenix/1345-west-camelback-rd./?utm_source=Yelp</v>
+      </c>
     </row>
     <row r="732">
       <c r="A732" t="str">
@@ -50417,6 +50648,9 @@
       <c r="H732" t="str">
         <v>https://www.yelp.com/biz/smooth-brew-on-roosevelt-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I732" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="733">
       <c r="A733" t="str">
@@ -50443,6 +50677,9 @@
       <c r="H733" t="str">
         <v>https://www.yelp.com/biz/popeyes-louisiana-kitchen-phoenix-6?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I733" t="str">
+        <v>https://www.popeyes.com/store-locator/store/restaurant_85534</v>
+      </c>
     </row>
     <row r="734">
       <c r="A734" t="str">
@@ -50469,6 +50706,9 @@
       <c r="H734" t="str">
         <v>https://www.yelp.com/biz/nypd-pizza-phoenix-3?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I734" t="str">
+        <v>http://www.aznypdpizza.com</v>
+      </c>
     </row>
     <row r="735">
       <c r="A735" t="str">
@@ -50495,6 +50735,9 @@
       <c r="H735" t="str">
         <v>https://www.yelp.com/biz/dipstick-waffles-and-bakery-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I735" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="736">
       <c r="A736" t="str">
@@ -50521,6 +50764,9 @@
       <c r="H736" t="str">
         <v>https://www.yelp.com/biz/kwench-juice-cafe-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I736" t="str">
+        <v>https://kwenchphx.com</v>
+      </c>
     </row>
     <row r="737">
       <c r="A737" t="str">
@@ -50547,6 +50793,9 @@
       <c r="H737" t="str">
         <v>https://www.yelp.com/biz/ellys-brunch-and-cafe-phoenix-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I737" t="str">
+        <v>http://ellysrestaurants.com</v>
+      </c>
     </row>
     <row r="738">
       <c r="A738" t="str">
@@ -50573,6 +50822,9 @@
       <c r="H738" t="str">
         <v>https://www.yelp.com/biz/di-vitos-pizza-phoenix-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I738" t="str">
+        <v>http://divitospizza.com</v>
+      </c>
     </row>
     <row r="739">
       <c r="A739" t="str">
@@ -50599,6 +50851,9 @@
       <c r="H739" t="str">
         <v>https://www.yelp.com/biz/mandys-fish-and-chips-phoenix-3?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I739" t="str">
+        <v>http://mandysfishandchips.com</v>
+      </c>
     </row>
     <row r="740">
       <c r="A740" t="str">
@@ -50625,6 +50880,9 @@
       <c r="H740" t="str">
         <v>https://www.yelp.com/biz/fridays-front-row-sports-grill-phoenix-3?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I740" t="str">
+        <v>http://www.frontrowphoenix.com</v>
+      </c>
     </row>
     <row r="741">
       <c r="A741" t="str">
@@ -50651,6 +50909,9 @@
       <c r="H741" t="str">
         <v>https://www.yelp.com/biz/across-the-pond-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I741" t="str">
+        <v>http://www.acrossthepondphx.com</v>
+      </c>
     </row>
     <row r="742">
       <c r="A742" t="str">
@@ -50677,6 +50938,9 @@
       <c r="H742" t="str">
         <v>https://www.yelp.com/biz/tokyo-express-phoenix-3?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I742" t="str">
+        <v>http://www.tokyoexpressaz.com</v>
+      </c>
     </row>
     <row r="743">
       <c r="A743" t="str">
@@ -50703,6 +50967,9 @@
       <c r="H743" t="str">
         <v>https://www.yelp.com/biz/la-cocina-de-dona-lola-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I743" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="744">
       <c r="A744" t="str">
@@ -50729,6 +50996,9 @@
       <c r="H744" t="str">
         <v>https://www.yelp.com/biz/fireside-grill-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I744" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="745">
       <c r="A745" t="str">
@@ -50755,6 +51025,9 @@
       <c r="H745" t="str">
         <v>https://www.yelp.com/biz/bosa-donuts-phoenix-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I745" t="str">
+        <v>http://bosadonutsaz.com</v>
+      </c>
     </row>
     <row r="746">
       <c r="A746" t="str">
@@ -50781,6 +51054,9 @@
       <c r="H746" t="str">
         <v>https://www.yelp.com/biz/chick-fil-a-phoenix-27?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I746" t="str">
+        <v>https://www.chick-fil-a.com/ArizonaStateUniversityDowntown</v>
+      </c>
     </row>
     <row r="747">
       <c r="A747" t="str">
@@ -50807,6 +51083,9 @@
       <c r="H747" t="str">
         <v>https://www.yelp.com/biz/bonus-round-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I747" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="748">
       <c r="A748" t="str">
@@ -50833,6 +51112,9 @@
       <c r="H748" t="str">
         <v>https://www.yelp.com/biz/tacos-mi-ranchito-mexican-grill-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I748" t="str">
+        <v>https://www.tacosmiranchitomexicangrill.com</v>
+      </c>
     </row>
     <row r="749">
       <c r="A749" t="str">
@@ -50859,6 +51141,9 @@
       <c r="H749" t="str">
         <v>https://www.yelp.com/biz/el-taco-tote-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I749" t="str">
+        <v>http://www.tacotote.com/site/index.php/en-us/store-locator</v>
+      </c>
     </row>
     <row r="750">
       <c r="A750" t="str">
@@ -50885,6 +51170,9 @@
       <c r="H750" t="str">
         <v>https://www.yelp.com/biz/el-rincon-poblano-mexican-grill-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I750" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="751">
       <c r="A751" t="str">
@@ -50911,6 +51199,9 @@
       <c r="H751" t="str">
         <v>https://www.yelp.com/biz/los-pilares-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I751" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="752">
       <c r="A752" t="str">
@@ -50937,6 +51228,9 @@
       <c r="H752" t="str">
         <v>https://www.yelp.com/biz/game-seven-grill-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I752" t="str">
+        <v>http://gamesevengrill.com/</v>
+      </c>
     </row>
     <row r="753">
       <c r="A753" t="str">
@@ -50963,6 +51257,9 @@
       <c r="H753" t="str">
         <v>https://www.yelp.com/biz/culvers-phoenix-3?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I753" t="str">
+        <v>http://www.culvers.com/restaurants/phoenix-camelback</v>
+      </c>
     </row>
     <row r="754">
       <c r="A754" t="str">
@@ -50989,6 +51286,9 @@
       <c r="H754" t="str">
         <v>https://www.yelp.com/biz/rositas-place-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I754" t="str">
+        <v>http://therositasplace.com</v>
+      </c>
     </row>
     <row r="755">
       <c r="A755" t="str">
@@ -51015,6 +51315,9 @@
       <c r="H755" t="str">
         <v>https://www.yelp.com/biz/el-pulpo-loco-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I755" t="str">
+        <v>https://elpulpoloco.business.site</v>
+      </c>
     </row>
     <row r="756">
       <c r="A756" t="str">
@@ -51041,6 +51344,9 @@
       <c r="H756" t="str">
         <v>https://www.yelp.com/biz/mandys-fish-and-chips-phoenix-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I756" t="str">
+        <v>http://mandysfishandchips.com/</v>
+      </c>
     </row>
     <row r="757">
       <c r="A757" t="str">
@@ -51067,6 +51373,9 @@
       <c r="H757" t="str">
         <v>https://www.yelp.com/biz/giant-rustic-pizza-phoenix-3?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I757" t="str">
+        <v>http://www.giantrusticpizza.com</v>
+      </c>
     </row>
     <row r="758">
       <c r="A758" t="str">
@@ -51093,6 +51402,9 @@
       <c r="H758" t="str">
         <v>https://www.yelp.com/biz/wy-market-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I758" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="759">
       <c r="A759" t="str">
@@ -51119,6 +51431,9 @@
       <c r="H759" t="str">
         <v>https://www.yelp.com/biz/el-mesquite-cocina-mexicana-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I759" t="str">
+        <v>https://el-mesquite-cocina-mexicana.business.site</v>
+      </c>
     </row>
     <row r="760">
       <c r="A760" t="str">
@@ -51145,6 +51460,9 @@
       <c r="H760" t="str">
         <v>https://www.yelp.com/biz/desert-jade-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I760" t="str">
+        <v>http://www.desertjade68.com</v>
+      </c>
     </row>
     <row r="761">
       <c r="A761" t="str">
@@ -51171,6 +51489,9 @@
       <c r="H761" t="str">
         <v>https://www.yelp.com/biz/long-wongs-of-laveen-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I761" t="str">
+        <v>http://longwongsoflaveen.com/</v>
+      </c>
     </row>
     <row r="762">
       <c r="A762" t="str">
@@ -51197,6 +51518,9 @@
       <c r="H762" t="str">
         <v>https://www.yelp.com/biz/jimmy-jacks-drive-in-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I762" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="763">
       <c r="A763" t="str">
@@ -51223,6 +51547,9 @@
       <c r="H763" t="str">
         <v>https://www.yelp.com/biz/doras-kitchen-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I763" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="764">
       <c r="A764" t="str">
@@ -51249,6 +51576,9 @@
       <c r="H764" t="str">
         <v>https://www.yelp.com/biz/california-pizza-kitchen-at-biltmore-phoenix-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I764" t="str">
+        <v>http://www.cpk.com/location/details/Biltmore</v>
+      </c>
     </row>
     <row r="765">
       <c r="A765" t="str">
@@ -51275,6 +51605,9 @@
       <c r="H765" t="str">
         <v>https://www.yelp.com/biz/las-glorias-restaurant-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I765" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="766">
       <c r="A766" t="str">
@@ -51301,6 +51634,9 @@
       <c r="H766" t="str">
         <v>https://www.yelp.com/biz/crazy-jims-downtown-phoenix-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I766" t="str">
+        <v>http://crazyjimsaz.com</v>
+      </c>
     </row>
     <row r="767">
       <c r="A767" t="str">
@@ -51327,6 +51663,9 @@
       <c r="H767" t="str">
         <v>https://www.yelp.com/biz/birria-estilo-michoacan-phoenix-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I767" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="768">
       <c r="A768" t="str">
@@ -51353,6 +51692,9 @@
       <c r="H768" t="str">
         <v>https://www.yelp.com/biz/playas-del-novilleros-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I768" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="769">
       <c r="A769" t="str">
@@ -51379,6 +51721,9 @@
       <c r="H769" t="str">
         <v>https://www.yelp.com/biz/la-pasadita-hot-dogs-phoenix-8?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I769" t="str">
+        <v>http://lapasaditahotdogs.com/m/home</v>
+      </c>
     </row>
     <row r="770">
       <c r="A770" t="str">
@@ -51405,6 +51750,9 @@
       <c r="H770" t="str">
         <v>https://www.yelp.com/biz/waffle-house-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I770" t="str">
+        <v>https://locations.wafflehouse.com/az-phoenix-1489</v>
+      </c>
     </row>
     <row r="771">
       <c r="A771" t="str">
@@ -51431,6 +51779,9 @@
       <c r="H771" t="str">
         <v>https://www.yelp.com/biz/la-salsitas-phoenix-4?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I771" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="772">
       <c r="A772" t="str">
@@ -51457,6 +51808,9 @@
       <c r="H772" t="str">
         <v>https://www.yelp.com/biz/asian-dining-chinese-restaurant-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I772" t="str">
+        <v>http://prod.getmymeal.com/en/asiandiningphoenix/</v>
+      </c>
     </row>
     <row r="773">
       <c r="A773" t="str">
@@ -51483,6 +51837,9 @@
       <c r="H773" t="str">
         <v>https://www.yelp.com/biz/ringside-sports-grill-phoenix-3?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I773" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="774">
       <c r="A774" t="str">
@@ -51509,6 +51866,9 @@
       <c r="H774" t="str">
         <v>https://www.yelp.com/biz/casa-de-don-pancho-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I774" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="775">
       <c r="A775" t="str">
@@ -51535,6 +51895,9 @@
       <c r="H775" t="str">
         <v>https://www.yelp.com/biz/las-islitas-de-san-blas-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I775" t="str">
+        <v>https://las-islitas-de-san-blas.business.site</v>
+      </c>
     </row>
     <row r="776">
       <c r="A776" t="str">
@@ -51561,6 +51924,9 @@
       <c r="H776" t="str">
         <v>https://www.yelp.com/biz/caffe-boa-ahwatukee-phoenix-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I776" t="str">
+        <v>http://www.caffeboa.com</v>
+      </c>
     </row>
     <row r="777">
       <c r="A777" t="str">
@@ -51587,6 +51953,9 @@
       <c r="H777" t="str">
         <v>https://www.yelp.com/biz/mims-burger-and-mexican-food-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I777" t="str">
+        <v>http://mimsburgershop.com/</v>
+      </c>
     </row>
     <row r="778">
       <c r="A778" t="str">
@@ -51613,6 +51982,9 @@
       <c r="H778" t="str">
         <v>https://www.yelp.com/biz/geordies-steak-phoenix-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I778" t="str">
+        <v>http://www.wrigleymansion.com/food-drink/</v>
+      </c>
     </row>
     <row r="779">
       <c r="A779" t="str">
@@ -51639,6 +52011,9 @@
       <c r="H779" t="str">
         <v>https://www.yelp.com/biz/og-original-genos-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I779" t="str">
+        <v>http://www.eatgenos.com</v>
+      </c>
     </row>
     <row r="780">
       <c r="A780" t="str">
@@ -51665,6 +52040,9 @@
       <c r="H780" t="str">
         <v>https://www.yelp.com/biz/azukar-coffee-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I780" t="str">
+        <v>https://azukar-coffee.business.site/?m=true</v>
+      </c>
     </row>
     <row r="781">
       <c r="A781" t="str">
@@ -51691,6 +52069,9 @@
       <c r="H781" t="str">
         <v>https://www.yelp.com/biz/the-park-indoor-dog-park-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I781" t="str">
+        <v>http://ThePark.bar</v>
+      </c>
     </row>
     <row r="782">
       <c r="A782" t="str">
@@ -51717,6 +52098,9 @@
       <c r="H782" t="str">
         <v>https://www.yelp.com/biz/zipps-sports-grill-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I782" t="str">
+        <v>https://www.zippssportsgrills.com</v>
+      </c>
     </row>
     <row r="783">
       <c r="A783" t="str">
@@ -51743,6 +52127,9 @@
       <c r="H783" t="str">
         <v>https://www.yelp.com/biz/la-hawaiiana-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I783" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="784">
       <c r="A784" t="str">
@@ -51769,6 +52156,9 @@
       <c r="H784" t="str">
         <v>https://www.yelp.com/biz/five-guys-phoenix-9?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I784" t="str">
+        <v>http://fiveguys.com/</v>
+      </c>
     </row>
     <row r="785">
       <c r="A785" t="str">
@@ -51795,6 +52185,9 @@
       <c r="H785" t="str">
         <v>https://www.yelp.com/biz/mariscos-el-sinaloco-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I785" t="str">
+        <v>https://www.elsinaloco.com</v>
+      </c>
     </row>
     <row r="786">
       <c r="A786" t="str">
@@ -51821,6 +52214,9 @@
       <c r="H786" t="str">
         <v>https://www.yelp.com/biz/courtesy-cafe-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I786" t="str">
+        <v>http://www.courtesychevrolet.us/</v>
+      </c>
     </row>
     <row r="787">
       <c r="A787" t="str">
@@ -51847,6 +52243,9 @@
       <c r="H787" t="str">
         <v>https://www.yelp.com/biz/oasis-raspados-phoenix-3?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I787" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="788">
       <c r="A788" t="str">
@@ -51873,6 +52272,9 @@
       <c r="H788" t="str">
         <v>https://www.yelp.com/biz/los-toritos-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I788" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="789">
       <c r="A789" t="str">
@@ -51899,6 +52301,9 @@
       <c r="H789" t="str">
         <v>https://www.yelp.com/biz/la-pupusa-loca-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I789" t="str">
+        <v>https://www.lapupusalocaaz.com</v>
+      </c>
     </row>
     <row r="790">
       <c r="A790" t="str">
@@ -51925,6 +52330,9 @@
       <c r="H790" t="str">
         <v>https://www.yelp.com/biz/panda-express-phoenix-19?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I790" t="str">
+        <v>https://www.pandaexpress.com/?utm_source=yelp&amp;utm_medium=profile&amp;utm_campaign=1928&amp;utm_content=bpas</v>
+      </c>
     </row>
     <row r="791">
       <c r="A791" t="str">
@@ -51951,6 +52359,9 @@
       <c r="H791" t="str">
         <v>https://www.yelp.com/biz/moto-sushi-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I791" t="str">
+        <v>http://mrmotorising.com/</v>
+      </c>
     </row>
     <row r="792">
       <c r="A792" t="str">
@@ -51977,6 +52388,9 @@
       <c r="H792" t="str">
         <v>https://www.yelp.com/biz/santan-brewing-company-uptown-phoenix-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I792" t="str">
+        <v>https://santanbrewing.com</v>
+      </c>
     </row>
     <row r="793">
       <c r="A793" t="str">
@@ -52003,6 +52417,9 @@
       <c r="H793" t="str">
         <v>https://www.yelp.com/biz/sticklers-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I793" t="str">
+        <v>http://sticklersaz.com/</v>
+      </c>
     </row>
     <row r="794">
       <c r="A794" t="str">
@@ -52029,6 +52446,9 @@
       <c r="H794" t="str">
         <v>https://www.yelp.com/biz/hungry-howies-pizza-phoenix-9?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I794" t="str">
+        <v>https://www.hungryhowies.com/store/hungry-howies-01851?utm_source=Yelp&amp;utm_medium=Referral&amp;utm_campaign=Yelp_CTA&amp;utm_term=01851&amp;utm_content=Website_Link</v>
+      </c>
     </row>
     <row r="795">
       <c r="A795" t="str">
@@ -52055,6 +52475,9 @@
       <c r="H795" t="str">
         <v>https://www.yelp.com/biz/soleil-bistro-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I795" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="796">
       <c r="A796" t="str">
@@ -52081,6 +52504,9 @@
       <c r="H796" t="str">
         <v>https://www.yelp.com/biz/applebees-grill-bar-phoenix-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I796" t="str">
+        <v>https://www.applebees.com/en/restaurants-phoenix-az/2-east-camelback-9059</v>
+      </c>
     </row>
     <row r="797">
       <c r="A797" t="str">
@@ -52107,6 +52533,9 @@
       <c r="H797" t="str">
         <v>https://www.yelp.com/biz/hooters-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I797" t="str">
+        <v>http://www.hootersarizona.com</v>
+      </c>
     </row>
     <row r="798">
       <c r="A798" t="str">
@@ -52133,6 +52562,9 @@
       <c r="H798" t="str">
         <v>https://www.yelp.com/biz/f%C3%A0me-caffe-phoenix-3?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I798" t="str">
+        <v>http://www.famecaffe.com</v>
+      </c>
     </row>
     <row r="799">
       <c r="A799" t="str">
@@ -52159,6 +52591,9 @@
       <c r="H799" t="str">
         <v>https://www.yelp.com/biz/el-ranchero-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I799" t="str">
+        <v>http://www.elranchero-phoenix.com</v>
+      </c>
     </row>
     <row r="800">
       <c r="A800" t="str">
@@ -52185,6 +52620,9 @@
       <c r="H800" t="str">
         <v>https://www.yelp.com/biz/mandarin-super-buffet-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I800" t="str">
+        <v>http://www.mandarinsuperbuffet.com</v>
+      </c>
     </row>
     <row r="801">
       <c r="A801" t="str">
@@ -52211,6 +52649,9 @@
       <c r="H801" t="str">
         <v>https://www.yelp.com/biz/the-lunch-lounge-phoenix-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I801" t="str">
+        <v>http://thelunchlounge.com</v>
+      </c>
     </row>
     <row r="802">
       <c r="A802" t="str">
@@ -52237,6 +52678,9 @@
       <c r="H802" t="str">
         <v>https://www.yelp.com/biz/chestnut-the-vintage-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I802" t="str">
+        <v>http://chestnutaz.com</v>
+      </c>
     </row>
     <row r="803">
       <c r="A803" t="str">
@@ -52263,6 +52707,9 @@
       <c r="H803" t="str">
         <v>https://www.yelp.com/biz/la-frontera-phoenix-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I803" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="804">
       <c r="A804" t="str">
@@ -52289,6 +52736,9 @@
       <c r="H804" t="str">
         <v>https://www.yelp.com/biz/los-altos-ranch-markets-phoenix-3?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I804" t="str">
+        <v>https://www.losaltosranchmarket.com</v>
+      </c>
     </row>
     <row r="805">
       <c r="A805" t="str">
@@ -52315,6 +52765,9 @@
       <c r="H805" t="str">
         <v>https://www.yelp.com/biz/kims-chinese-kitchen-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I805" t="str">
+        <v>http://kimschinesekitchen.com</v>
+      </c>
     </row>
     <row r="806">
       <c r="A806" t="str">
@@ -52341,6 +52794,9 @@
       <c r="H806" t="str">
         <v>https://www.yelp.com/biz/la-cocina-economica-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I806" t="str">
+        <v>http://www.lacocinamexicankitchen.com</v>
+      </c>
     </row>
     <row r="807">
       <c r="A807" t="str">
@@ -52367,6 +52823,9 @@
       <c r="H807" t="str">
         <v>https://www.yelp.com/biz/raspado-express-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I807" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="808">
       <c r="A808" t="str">
@@ -52393,6 +52852,9 @@
       <c r="H808" t="str">
         <v>https://www.yelp.com/biz/rott-n-grapes-uptown-phoenix-5?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I808" t="str">
+        <v>https://rottngrapes.com</v>
+      </c>
     </row>
     <row r="809">
       <c r="A809" t="str">
@@ -52419,6 +52881,9 @@
       <c r="H809" t="str">
         <v>https://www.yelp.com/biz/taqueria-primos-vip-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I809" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="810">
       <c r="A810" t="str">
@@ -52445,6 +52910,9 @@
       <c r="H810" t="str">
         <v>https://www.yelp.com/biz/barros-pizza-phoenix-21?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I810" t="str">
+        <v>https://www.barrospizza.com</v>
+      </c>
     </row>
     <row r="811">
       <c r="A811" t="str">
@@ -52471,6 +52939,9 @@
       <c r="H811" t="str">
         <v>https://www.yelp.com/biz/boo-s-snac-shac-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I811" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="812">
       <c r="A812" t="str">
@@ -52497,6 +52968,9 @@
       <c r="H812" t="str">
         <v>https://www.yelp.com/biz/steves-deli-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I812" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="813">
       <c r="A813" t="str">
@@ -52523,6 +52997,9 @@
       <c r="H813" t="str">
         <v>https://www.yelp.com/biz/streets-of-new-york-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I813" t="str">
+        <v>http://www.streetsofnewyork.com</v>
+      </c>
     </row>
     <row r="814">
       <c r="A814" t="str">
@@ -52549,6 +53026,9 @@
       <c r="H814" t="str">
         <v>https://www.yelp.com/biz/city-view-grill-phoenix-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I814" t="str">
+        <v>http://www.cityviewgrill.com</v>
+      </c>
     </row>
     <row r="815">
       <c r="A815" t="str">
@@ -52575,6 +53055,9 @@
       <c r="H815" t="str">
         <v>https://www.yelp.com/biz/lucis-healthy-marketplace-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I815" t="str">
+        <v>http://www.LucisHealthyMarketplace.com/</v>
+      </c>
     </row>
     <row r="816">
       <c r="A816" t="str">
@@ -52601,6 +53084,9 @@
       <c r="H816" t="str">
         <v>https://www.yelp.com/biz/china-restaurant-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I816" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="817">
       <c r="A817" t="str">
@@ -52627,6 +53113,9 @@
       <c r="H817" t="str">
         <v>https://www.yelp.com/biz/may-garden-restaurant-phoenix-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I817" t="str">
+        <v>http://www.maygardenphoenix.com</v>
+      </c>
     </row>
     <row r="818">
       <c r="A818" t="str">
@@ -52653,6 +53142,9 @@
       <c r="H818" t="str">
         <v>https://www.yelp.com/biz/artbar-bistro-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I818" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="819">
       <c r="A819" t="str">
@@ -52679,6 +53171,9 @@
       <c r="H819" t="str">
         <v>https://www.yelp.com/biz/chilitos-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I819" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="820">
       <c r="A820" t="str">
@@ -52705,6 +53200,9 @@
       <c r="H820" t="str">
         <v>https://www.yelp.com/biz/healthy-roots-cafe-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I820" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="821">
       <c r="A821" t="str">
@@ -52731,6 +53229,9 @@
       <c r="H821" t="str">
         <v>https://www.yelp.com/biz/bill-luke-grill-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I821" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="822">
       <c r="A822" t="str">
@@ -52757,6 +53258,9 @@
       <c r="H822" t="str">
         <v>https://www.yelp.com/biz/blue-mesa-tacos-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I822" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="823">
       <c r="A823" t="str">
@@ -52783,6 +53287,9 @@
       <c r="H823" t="str">
         <v>https://www.yelp.com/biz/el-nuevo-taquito-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I823" t="str">
+        <v>https://www.elnuevotaquito.com</v>
+      </c>
     </row>
     <row r="824">
       <c r="A824" t="str">
@@ -52809,6 +53316,9 @@
       <c r="H824" t="str">
         <v>https://www.yelp.com/biz/pei-wei-phoenix-3?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I824" t="str">
+        <v>https://www.peiwei.com/arizona/2-arcadia</v>
+      </c>
     </row>
     <row r="825">
       <c r="A825" t="str">
@@ -52835,6 +53345,9 @@
       <c r="H825" t="str">
         <v>https://www.yelp.com/biz/arcadia-tavern-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I825" t="str">
+        <v>https://arcadiatavern.com</v>
+      </c>
     </row>
     <row r="826">
       <c r="A826" t="str">
@@ -52861,6 +53374,9 @@
       <c r="H826" t="str">
         <v>https://www.yelp.com/biz/wildflower-crown-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I826" t="str">
+        <v>https://www.wildflowerbread.com/location/crown-coming-soon/</v>
+      </c>
     </row>
     <row r="827">
       <c r="A827" t="str">
@@ -52887,6 +53403,9 @@
       <c r="H827" t="str">
         <v>https://www.yelp.com/biz/lo-los-chicken-and-waffles-phoenix-3?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I827" t="str">
+        <v>http://loloschickenandwaffles.com/location/phoenix-airport/</v>
+      </c>
     </row>
     <row r="828">
       <c r="A828" t="str">
@@ -52913,6 +53432,9 @@
       <c r="H828" t="str">
         <v>https://www.yelp.com/biz/el-snappy-mexican-food-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I828" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="829">
       <c r="A829" t="str">
@@ -52939,6 +53461,9 @@
       <c r="H829" t="str">
         <v>https://www.yelp.com/biz/yobahut-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I829" t="str">
+        <v>https://yobahut.com</v>
+      </c>
     </row>
     <row r="830">
       <c r="A830" t="str">
@@ -52965,6 +53490,9 @@
       <c r="H830" t="str">
         <v>https://www.yelp.com/biz/raising-cane-s-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I830" t="str">
+        <v>https://www.raisingcanes.com/location/now-open-central-phoenix</v>
+      </c>
     </row>
     <row r="831">
       <c r="A831" t="str">
@@ -52991,6 +53519,9 @@
       <c r="H831" t="str">
         <v>https://www.yelp.com/biz/cabana-club-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I831" t="str">
+        <v>http://www.arizonabiltmore.com/restaurants-and-dining</v>
+      </c>
     </row>
     <row r="832">
       <c r="A832" t="str">
@@ -53017,6 +53548,9 @@
       <c r="H832" t="str">
         <v>https://www.yelp.com/biz/new-hong-kong-phoenix-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I832" t="str">
+        <v>http://www.newhongkongphx.com/</v>
+      </c>
     </row>
     <row r="833">
       <c r="A833" t="str">
@@ -53043,6 +53577,9 @@
       <c r="H833" t="str">
         <v>https://www.yelp.com/biz/firehouse-subs-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I833" t="str">
+        <v>https://www.firehousesubs.com/locations/az/arcadia-plaza</v>
+      </c>
     </row>
     <row r="834">
       <c r="A834" t="str">
@@ -53069,6 +53606,9 @@
       <c r="H834" t="str">
         <v>https://www.yelp.com/biz/las-cazuelas-mexican-and-seafood-restaurant-phoenix-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I834" t="str">
+        <v>http://lascazuelasAZ.com</v>
+      </c>
     </row>
     <row r="835">
       <c r="A835" t="str">
@@ -53095,6 +53635,9 @@
       <c r="H835" t="str">
         <v>https://www.yelp.com/biz/hard-rock-cafe-phoenix-4?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I835" t="str">
+        <v>http://www.hardrock.com/locations/cafes3/cafe.aspx?LocationID=34&amp;MIBEnumID=3</v>
+      </c>
     </row>
     <row r="836">
       <c r="A836" t="str">
@@ -53121,6 +53664,9 @@
       <c r="H836" t="str">
         <v>https://www.yelp.com/biz/snooze-an-a-m-eatery-phoenix-8?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I836" t="str">
+        <v>https://www.snoozeeatery.com/?utm_campaign=yelp_paid_listing&amp;utm_medium=listing&amp;utm_source=yelp</v>
+      </c>
     </row>
     <row r="837">
       <c r="A837" t="str">
@@ -53147,6 +53693,9 @@
       <c r="H837" t="str">
         <v>https://www.yelp.com/biz/potbelly-sandwich-shop-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I837" t="str">
+        <v>http://www.potbelly.com/Camelback?utm_source=ExtNet&amp;utm_medium=organic&amp;utm_campaign=Yext</v>
+      </c>
     </row>
     <row r="838">
       <c r="A838" t="str">
@@ -53173,6 +53722,9 @@
       <c r="H838" t="str">
         <v>https://www.yelp.com/biz/yass-grubb-shack-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I838" t="str">
+        <v>https://yassgrubbshack.com</v>
+      </c>
     </row>
     <row r="839">
       <c r="A839" t="str">
@@ -53199,6 +53751,9 @@
       <c r="H839" t="str">
         <v>https://www.yelp.com/biz/luanas-coffee-and-beer-phoenix-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I839" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="840">
       <c r="A840" t="str">
@@ -53225,6 +53780,9 @@
       <c r="H840" t="str">
         <v>https://www.yelp.com/biz/scotts-generations-restaurant-and-delicatessen-phoenix-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I840" t="str">
+        <v>http://www.scottsgenerations.com</v>
+      </c>
     </row>
     <row r="841">
       <c r="A841" t="str">
@@ -53251,6 +53809,9 @@
       <c r="H841" t="str">
         <v>https://www.yelp.com/biz/taqueria-el-vaporcito-phoenix-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I841" t="str">
+        <v>http://www.taqueria-el-vaporcito.com</v>
+      </c>
     </row>
     <row r="842">
       <c r="A842" t="str">
@@ -53277,6 +53838,9 @@
       <c r="H842" t="str">
         <v>https://www.yelp.com/biz/ralphs-snack-bar-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I842" t="str">
+        <v>http://www.ralphssnackbar.com</v>
+      </c>
     </row>
     <row r="843">
       <c r="A843" t="str">
@@ -53303,6 +53867,9 @@
       <c r="H843" t="str">
         <v>https://www.yelp.com/biz/sushi-brokers-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I843" t="str">
+        <v>http://www.sushibrokers.com</v>
+      </c>
     </row>
     <row r="844">
       <c r="A844" t="str">
@@ -53329,6 +53896,9 @@
       <c r="H844" t="str">
         <v>https://www.yelp.com/biz/great-american-grill-phoenix-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I844" t="str">
+        <v>http://www.hgiphoenix.com</v>
+      </c>
     </row>
     <row r="845">
       <c r="A845" t="str">
@@ -53355,6 +53925,9 @@
       <c r="H845" t="str">
         <v>https://www.yelp.com/biz/vincent-market-bistro-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I845" t="str">
+        <v>https://www.vincentsoncamelback.com/bistro</v>
+      </c>
     </row>
     <row r="846">
       <c r="A846" t="str">
@@ -53381,6 +53954,9 @@
       <c r="H846" t="str">
         <v>https://www.yelp.com/biz/yogis-grill-phoenix-5?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I846" t="str">
+        <v>http://yogisgrill.com</v>
+      </c>
     </row>
     <row r="847">
       <c r="A847" t="str">
@@ -53407,6 +53983,9 @@
       <c r="H847" t="str">
         <v>https://www.yelp.com/biz/tacos-y-mariscos-el-sinaloa-phoenix-3?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I847" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="848">
       <c r="A848" t="str">
@@ -53433,6 +54012,9 @@
       <c r="H848" t="str">
         <v>https://www.yelp.com/biz/quiznos-phoenix-32?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I848" t="str">
+        <v>http://restaurants.quiznos.com/az/phoenix/broadwaycommercepark-85040</v>
+      </c>
     </row>
     <row r="849">
       <c r="A849" t="str">
@@ -53459,6 +54041,9 @@
       <c r="H849" t="str">
         <v>https://www.yelp.com/biz/chipotle-mexican-grill-phoenix-18?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I849" t="str">
+        <v>https://www.chipotle.com?utm_source=Yelp&amp;utm_medium=Yelp-listing&amp;utm_campaign=cmg_yelp_listings</v>
+      </c>
     </row>
     <row r="850">
       <c r="A850" t="str">
@@ -53485,6 +54070,9 @@
       <c r="H850" t="str">
         <v>https://www.yelp.com/biz/wildflower-phoenix-4?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I850" t="str">
+        <v>http://www.wildflowerbread.com/location/sky-harbor-airport</v>
+      </c>
     </row>
     <row r="851">
       <c r="A851" t="str">
@@ -53511,6 +54099,9 @@
       <c r="H851" t="str">
         <v>https://www.yelp.com/biz/sizzler-phoenix-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I851" t="str">
+        <v>https://www.sizzleraz.com</v>
+      </c>
     </row>
     <row r="852">
       <c r="A852" t="str">
@@ -53537,6 +54128,9 @@
       <c r="H852" t="str">
         <v>https://www.yelp.com/biz/samurai-sams-phoenix-9?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I852" t="str">
+        <v>http://www.samuraisams.net/stores/5010</v>
+      </c>
     </row>
     <row r="853">
       <c r="A853" t="str">
@@ -53563,6 +54157,9 @@
       <c r="H853" t="str">
         <v>https://www.yelp.com/biz/sauce-pizza-and-wine-phoenix-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I853" t="str">
+        <v>http://www.saucepizzaandwine.com/locations/phoenix-madison-village/?utm_source=yelp&amp;utm_medium=social</v>
+      </c>
     </row>
     <row r="854">
       <c r="A854" t="str">
@@ -53589,6 +54186,9 @@
       <c r="H854" t="str">
         <v>https://www.yelp.com/biz/desert-gold-cafe-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I854" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="855">
       <c r="A855" t="str">
@@ -53615,6 +54215,9 @@
       <c r="H855" t="str">
         <v>https://www.yelp.com/biz/durango-grill-phoenix-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I855" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="856">
       <c r="A856" t="str">
@@ -53641,6 +54244,9 @@
       <c r="H856" t="str">
         <v>https://www.yelp.com/biz/regios-mexican-food-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I856" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="857">
       <c r="A857" t="str">
@@ -53667,6 +54273,9 @@
       <c r="H857" t="str">
         <v>https://www.yelp.com/biz/lucis-at-the-orchard-phoenix-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I857" t="str">
+        <v>http://www.lucisorchard.com</v>
+      </c>
     </row>
     <row r="858">
       <c r="A858" t="str">
@@ -53693,6 +54302,9 @@
       <c r="H858" t="str">
         <v>https://www.yelp.com/biz/machete-azteca-phoenix-3?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I858" t="str">
+        <v>http://www.macheteazteca5.com</v>
+      </c>
     </row>
     <row r="859">
       <c r="A859" t="str">
@@ -53719,6 +54331,9 @@
       <c r="H859" t="str">
         <v>https://www.yelp.com/biz/comoncy-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I859" t="str">
+        <v>https://comoncy.com</v>
+      </c>
     </row>
     <row r="860">
       <c r="A860" t="str">
@@ -53745,6 +54360,9 @@
       <c r="H860" t="str">
         <v>https://www.yelp.com/biz/bamboo-china-restaurant-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I860" t="str">
+        <v>http://www.bamboochina.net</v>
+      </c>
     </row>
     <row r="861">
       <c r="A861" t="str">
@@ -53771,6 +54389,9 @@
       <c r="H861" t="str">
         <v>https://www.yelp.com/biz/the-madison-deli-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I861" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="862">
       <c r="A862" t="str">
@@ -53797,6 +54418,9 @@
       <c r="H862" t="str">
         <v>https://www.yelp.com/biz/la-madeleine-phx-term-4-b19-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I862" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="863">
       <c r="A863" t="str">
@@ -53823,6 +54447,9 @@
       <c r="H863" t="str">
         <v>https://www.yelp.com/biz/zipps-sports-grill-phoenix-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I863" t="str">
+        <v>https://www.zippssportsgrills.com</v>
+      </c>
     </row>
     <row r="864">
       <c r="A864" t="str">
@@ -53849,6 +54476,9 @@
       <c r="H864" t="str">
         <v>https://www.yelp.com/biz/casita-del-mar-phoenix-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I864" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="865">
       <c r="A865" t="str">
@@ -53875,6 +54505,9 @@
       <c r="H865" t="str">
         <v>https://www.yelp.com/biz/taqueria-el-guerrerense-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I865" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="866">
       <c r="A866" t="str">
@@ -53901,6 +54534,9 @@
       <c r="H866" t="str">
         <v>https://www.yelp.com/biz/dapper-and-stout-coffee-company-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I866" t="str">
+        <v>http://www.dapperandstout.com</v>
+      </c>
     </row>
     <row r="867">
       <c r="A867" t="str">
@@ -53927,6 +54563,9 @@
       <c r="H867" t="str">
         <v>https://www.yelp.com/biz/seamus-mccaffreys-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I867" t="str">
+        <v>http://www.seamusmccaffreys.com</v>
+      </c>
     </row>
     <row r="868">
       <c r="A868" t="str">
@@ -53953,6 +54592,9 @@
       <c r="H868" t="str">
         <v>https://www.yelp.com/biz/mariscos-chihuahua-phoenix-3?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I868" t="str">
+        <v>http://www.chihuahuaseafood.com</v>
+      </c>
     </row>
     <row r="869">
       <c r="A869" t="str">
@@ -53979,6 +54621,9 @@
       <c r="H869" t="str">
         <v>https://www.yelp.com/biz/spee-d-tees-bbq-and-subs-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I869" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="870">
       <c r="A870" t="str">
@@ -54005,6 +54650,9 @@
       <c r="H870" t="str">
         <v>https://www.yelp.com/biz/urban-beans-phoenix-3?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I870" t="str">
+        <v>http://urbanbeans.com/</v>
+      </c>
     </row>
     <row r="871">
       <c r="A871" t="str">
@@ -54031,6 +54679,9 @@
       <c r="H871" t="str">
         <v>https://www.yelp.com/biz/mod-pizza-phoenix-4?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I871" t="str">
+        <v>https://modpizza.com/locations/midtown/?utm_campaign=yelplistingbusiness&amp;utm_medium=referral&amp;utm_source=yelp</v>
+      </c>
     </row>
     <row r="872">
       <c r="A872" t="str">
@@ -54057,6 +54708,9 @@
       <c r="H872" t="str">
         <v>https://www.yelp.com/biz/extreme-sushi-roll-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I872" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="873">
       <c r="A873" t="str">
@@ -54083,6 +54737,9 @@
       <c r="H873" t="str">
         <v>https://www.yelp.com/biz/5th-avenue-cafe-phoenix-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I873" t="str">
+        <v>http://www.5thavenuecafephoenix.com</v>
+      </c>
     </row>
     <row r="874">
       <c r="A874" t="str">
@@ -54109,6 +54766,9 @@
       <c r="H874" t="str">
         <v>https://www.yelp.com/biz/pats-pizza-plus-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I874" t="str">
+        <v>https://www.patspizzaplus.net</v>
+      </c>
     </row>
     <row r="875">
       <c r="A875" t="str">
@@ -54135,6 +54795,9 @@
       <c r="H875" t="str">
         <v>https://www.yelp.com/biz/q-up-barbeque-phoenix-3?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I875" t="str">
+        <v>http://qupbbq.com</v>
+      </c>
     </row>
     <row r="876">
       <c r="A876" t="str">
@@ -54161,6 +54824,9 @@
       <c r="H876" t="str">
         <v>https://www.yelp.com/biz/mariscos-ensenada-phoenix-4?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I876" t="str">
+        <v>http://mariscoensenada.com</v>
+      </c>
     </row>
     <row r="877">
       <c r="A877" t="str">
@@ -54187,6 +54853,9 @@
       <c r="H877" t="str">
         <v>https://www.yelp.com/biz/d-taco-pit-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I877" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="878">
       <c r="A878" t="str">
@@ -54213,6 +54882,9 @@
       <c r="H878" t="str">
         <v>https://www.yelp.com/biz/downtown-pizza-lounge-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I878" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="879">
       <c r="A879" t="str">
@@ -54239,6 +54911,9 @@
       <c r="H879" t="str">
         <v>https://www.yelp.com/biz/port-of-subs-phoenix-8?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I879" t="str">
+        <v>http://www.portofsubs.com</v>
+      </c>
     </row>
     <row r="880">
       <c r="A880" t="str">
@@ -54265,6 +54940,9 @@
       <c r="H880" t="str">
         <v>https://www.yelp.com/biz/wrights-at-the-arizona-biltmore-phoenix-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I880" t="str">
+        <v>https://www.arizonabiltmore.com/dining/wrights-at-the-biltmore/</v>
+      </c>
     </row>
     <row r="881">
       <c r="A881" t="str">
@@ -54291,6 +54969,9 @@
       <c r="H881" t="str">
         <v>https://www.yelp.com/biz/lydias-la-canasta-mexican-food-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I881" t="str">
+        <v>http://www.lydias-la-canasta.com</v>
+      </c>
     </row>
     <row r="882">
       <c r="A882" t="str">
@@ -54317,6 +54998,9 @@
       <c r="H882" t="str">
         <v>https://www.yelp.com/biz/taqueria-y-birrieria-jalisco-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I882" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="883">
       <c r="A883" t="str">
@@ -54343,6 +55027,9 @@
       <c r="H883" t="str">
         <v>https://www.yelp.com/biz/sushi-sonora-phoenix-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I883" t="str">
+        <v>http://www.sushisonora.com</v>
+      </c>
     </row>
     <row r="884">
       <c r="A884" t="str">
@@ -54369,6 +55056,9 @@
       <c r="H884" t="str">
         <v>https://www.yelp.com/biz/half-moon-windy-city-sports-grill-phoenix-6?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I884" t="str">
+        <v>https://www.halfmoonsportsgrill.com/location</v>
+      </c>
     </row>
     <row r="885">
       <c r="A885" t="str">
@@ -54395,6 +55085,9 @@
       <c r="H885" t="str">
         <v>https://www.yelp.com/biz/lunch-break-phoenix-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I885" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="886">
       <c r="A886" t="str">
@@ -54421,6 +55114,9 @@
       <c r="H886" t="str">
         <v>https://www.yelp.com/biz/oasis-hospital-cafe-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I886" t="str">
+        <v>http://www.oasishospital.com</v>
+      </c>
     </row>
     <row r="887">
       <c r="A887" t="str">
@@ -54447,6 +55143,9 @@
       <c r="H887" t="str">
         <v>https://www.yelp.com/biz/squaw-peak-cafe-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I887" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="888">
       <c r="A888" t="str">
@@ -54473,6 +55172,9 @@
       <c r="H888" t="str">
         <v>https://www.yelp.com/biz/duck-and-decanter-phoenix-3?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I888" t="str">
+        <v>http://www.duckanddecanter.com/</v>
+      </c>
     </row>
     <row r="889">
       <c r="A889" t="str">
@@ -54499,6 +55201,9 @@
       <c r="H889" t="str">
         <v>https://www.yelp.com/biz/coyote-grill-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I889" t="str">
+        <v>http://www.westphoenixhotel.com/dining/</v>
+      </c>
     </row>
     <row r="890">
       <c r="A890" t="str">
@@ -54525,6 +55230,9 @@
       <c r="H890" t="str">
         <v>https://www.yelp.com/biz/barrio-avion-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I890" t="str">
+        <v>http://www.chefsilvana.com</v>
+      </c>
     </row>
     <row r="891">
       <c r="A891" t="str">
@@ -54551,6 +55259,9 @@
       <c r="H891" t="str">
         <v>https://www.yelp.com/biz/morning-glory-cafe-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I891" t="str">
+        <v>https://www.thefarmatsouthmountain.com/morning-glory-patio/</v>
+      </c>
     </row>
     <row r="892">
       <c r="A892" t="str">
@@ -54577,6 +55288,9 @@
       <c r="H892" t="str">
         <v>https://www.yelp.com/biz/golden-nugget-chinese-buffet-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I892" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="893">
       <c r="A893" t="str">
@@ -54603,6 +55317,9 @@
       <c r="H893" t="str">
         <v>https://www.yelp.com/biz/blimpie-phoenix-15?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I893" t="str">
+        <v>http://www.blimpie.com/stores/10036</v>
+      </c>
     </row>
     <row r="894">
       <c r="A894" t="str">
@@ -54629,6 +55346,9 @@
       <c r="H894" t="str">
         <v>https://www.yelp.com/biz/tammie-coe-to-go-phoenix-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I894" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="895">
       <c r="A895" t="str">
@@ -54655,6 +55375,9 @@
       <c r="H895" t="str">
         <v>https://www.yelp.com/biz/chick-fil-a-phoenix-33?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I895" t="str">
+        <v>https://www.chick-fil-a.com/Locations/AZ/South-Mountain</v>
+      </c>
     </row>
     <row r="896">
       <c r="A896" t="str">
@@ -54681,6 +55404,9 @@
       <c r="H896" t="str">
         <v>https://www.yelp.com/biz/petes-fish-and-chips-phoenix-6?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I896" t="str">
+        <v>http://www.petesfishandchips.com</v>
+      </c>
     </row>
     <row r="897">
       <c r="A897" t="str">
@@ -54707,6 +55433,9 @@
       <c r="H897" t="str">
         <v>https://www.yelp.com/biz/bps-hotdogs-and-more-phoenix-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I897" t="str">
+        <v>http://www.bphotdogs.com</v>
+      </c>
     </row>
     <row r="898">
       <c r="A898" t="str">
@@ -54733,6 +55462,9 @@
       <c r="H898" t="str">
         <v>https://www.yelp.com/biz/lucky-kitchen-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I898" t="str">
+        <v>http://orderluckykitchen.com</v>
+      </c>
     </row>
     <row r="899">
       <c r="A899" t="str">
@@ -54759,6 +55491,9 @@
       <c r="H899" t="str">
         <v>https://www.yelp.com/biz/bosa-donuts-phoenix-14?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I899" t="str">
+        <v>http://bosadonutsaz.com</v>
+      </c>
     </row>
     <row r="900">
       <c r="A900" t="str">
@@ -54785,6 +55520,9 @@
       <c r="H900" t="str">
         <v>https://www.yelp.com/biz/twenty-highland-tavern-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I900" t="str">
+        <v>http://www.wholefoodsmarket.com/stores/camelback</v>
+      </c>
     </row>
     <row r="901">
       <c r="A901" t="str">
@@ -54811,6 +55549,9 @@
       <c r="H901" t="str">
         <v>https://www.yelp.com/biz/del-taco-phoenix-3?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I901" t="str">
+        <v>http://deltaco.com/</v>
+      </c>
     </row>
     <row r="902">
       <c r="A902" t="str">
@@ -54837,6 +55578,9 @@
       <c r="H902" t="str">
         <v>https://www.yelp.com/biz/la-olmeca-restaurant-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I902" t="str">
+        <v>http://www.laolmeca.com</v>
+      </c>
     </row>
     <row r="903">
       <c r="A903" t="str">
@@ -54863,6 +55607,9 @@
       <c r="H903" t="str">
         <v>https://www.yelp.com/biz/papa-johns-pizza-phoenix-24?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I903" t="str">
+        <v>http://www.PapaJohns.com</v>
+      </c>
     </row>
     <row r="904">
       <c r="A904" t="str">
@@ -54889,6 +55636,9 @@
       <c r="H904" t="str">
         <v>https://www.yelp.com/biz/gallaghers-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I904" t="str">
+        <v>http://gallaghersaz.com/</v>
+      </c>
     </row>
     <row r="905">
       <c r="A905" t="str">
@@ -54915,6 +55665,9 @@
       <c r="H905" t="str">
         <v>https://www.yelp.com/biz/churchs-fried-chicken-phoenix-4?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I905" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="906">
       <c r="A906" t="str">
@@ -54941,6 +55694,9 @@
       <c r="H906" t="str">
         <v>https://www.yelp.com/biz/arriba-mexican-grill-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I906" t="str">
+        <v>http://www.arribamexicangrill.com/</v>
+      </c>
     </row>
     <row r="907">
       <c r="A907" t="str">
@@ -54967,6 +55723,9 @@
       <c r="H907" t="str">
         <v>https://www.yelp.com/biz/big-mans-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I907" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="908">
       <c r="A908" t="str">
@@ -54993,6 +55752,9 @@
       <c r="H908" t="str">
         <v>https://www.yelp.com/biz/r-kidds-pizza-and-wings-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I908" t="str">
+        <v>http://rkiddspizzaandwings.com/</v>
+      </c>
     </row>
     <row r="909">
       <c r="A909" t="str">
@@ -55019,6 +55781,9 @@
       <c r="H909" t="str">
         <v>https://www.yelp.com/biz/country-boys-restaurants-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I909" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="910">
       <c r="A910" t="str">
@@ -55045,6 +55810,9 @@
       <c r="H910" t="str">
         <v>https://www.yelp.com/biz/zoes-kitchen-phoenix-27?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I910" t="str">
+        <v>https://zoeskitchen.com/locations/store/az/mcdowell?utm_source=yelp&amp;utm_medium=organic&amp;utm_campaign=evergreen&amp;utm_content=link.zknowopen.biz</v>
+      </c>
     </row>
     <row r="911">
       <c r="A911" t="str">
@@ -55071,6 +55839,9 @@
       <c r="H911" t="str">
         <v>https://www.yelp.com/biz/pei-wei-asian-diner-phoenix-12?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I911" t="str">
+        <v>https://www.peiwei.com</v>
+      </c>
     </row>
     <row r="912">
       <c r="A912" t="str">
@@ -55097,6 +55868,9 @@
       <c r="H912" t="str">
         <v>https://www.yelp.com/biz/breakroom-bar-and-grill-phoenix-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I912" t="str">
+        <v>https://breakroombar.com</v>
+      </c>
     </row>
     <row r="913">
       <c r="A913" t="str">
@@ -55123,6 +55897,9 @@
       <c r="H913" t="str">
         <v>https://www.yelp.com/biz/kings-subs-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I913" t="str">
+        <v>http://www.kingssubsphx.com/</v>
+      </c>
     </row>
     <row r="914">
       <c r="A914" t="str">
@@ -55149,6 +55926,9 @@
       <c r="H914" t="str">
         <v>https://www.yelp.com/biz/paradise-valley-burger-chase-field-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I914" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="915">
       <c r="A915" t="str">
@@ -55175,6 +55955,9 @@
       <c r="H915" t="str">
         <v>https://www.yelp.com/biz/restaurant-monarca-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I915" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="916">
       <c r="A916" t="str">
@@ -55201,6 +55984,9 @@
       <c r="H916" t="str">
         <v>https://www.yelp.com/biz/the-tavern-phoenix-3?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I916" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="917">
       <c r="A917" t="str">
@@ -55227,6 +56013,9 @@
       <c r="H917" t="str">
         <v>https://www.yelp.com/biz/new-silver-dragon-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I917" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="918">
       <c r="A918" t="str">
@@ -55253,6 +56042,9 @@
       <c r="H918" t="str">
         <v>https://www.yelp.com/biz/edwards-bakery-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I918" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="919">
       <c r="A919" t="str">
@@ -55279,6 +56071,9 @@
       <c r="H919" t="str">
         <v>https://www.yelp.com/biz/sams-diner-to-go-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I919" t="str">
+        <v>https://samsdinertogo.com</v>
+      </c>
     </row>
     <row r="920">
       <c r="A920" t="str">
@@ -55305,6 +56100,9 @@
       <c r="H920" t="str">
         <v>https://www.yelp.com/biz/five-guys-phoenix-10?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I920" t="str">
+        <v>http://www.fiveguys.com</v>
+      </c>
     </row>
     <row r="921">
       <c r="A921" t="str">
@@ -55331,6 +56129,9 @@
       <c r="H921" t="str">
         <v>https://www.yelp.com/biz/eribertos-mexican-food-phoenix-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I921" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="922">
       <c r="A922" t="str">
@@ -55357,6 +56158,9 @@
       <c r="H922" t="str">
         <v>https://www.yelp.com/biz/aint-nicks-tavern-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I922" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="923">
       <c r="A923" t="str">
@@ -55383,6 +56187,9 @@
       <c r="H923" t="str">
         <v>https://www.yelp.com/biz/applebees-grill-bar-phoenix-3?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I923" t="str">
+        <v>https://www.applebees.com/en/restaurants-phoenix-az/2180-e-baseline-road-98063</v>
+      </c>
     </row>
     <row r="924">
       <c r="A924" t="str">
@@ -55409,6 +56216,9 @@
       <c r="H924" t="str">
         <v>https://www.yelp.com/biz/arbys-phoenix-9?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I924" t="str">
+        <v>http://www.arbys.com/</v>
+      </c>
     </row>
     <row r="925">
       <c r="A925" t="str">
@@ -55435,6 +56245,9 @@
       <c r="H925" t="str">
         <v>https://www.yelp.com/biz/raspados-imperial-phoenix-3?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I925" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="926">
       <c r="A926" t="str">
@@ -55461,6 +56274,9 @@
       <c r="H926" t="str">
         <v>https://www.yelp.com/biz/generation-delicatessen-and-catering-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I926" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="927">
       <c r="A927" t="str">
@@ -55487,6 +56303,9 @@
       <c r="H927" t="str">
         <v>https://www.yelp.com/biz/chefs-at-your-home-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I927" t="str">
+        <v>http://www.chefsatyourhome.com</v>
+      </c>
     </row>
     <row r="928">
       <c r="A928" t="str">
@@ -55513,6 +56332,9 @@
       <c r="H928" t="str">
         <v>https://www.yelp.com/biz/bean-sprouts-cafe-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I928" t="str">
+        <v>http://beansprouts.com/phoenix</v>
+      </c>
     </row>
     <row r="929">
       <c r="A929" t="str">
@@ -55539,6 +56361,9 @@
       <c r="H929" t="str">
         <v>https://www.yelp.com/biz/el-jacal-mexican-restaurant-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I929" t="str">
+        <v>http://www.eljacalaz.com</v>
+      </c>
     </row>
     <row r="930">
       <c r="A930" t="str">
@@ -55565,6 +56390,9 @@
       <c r="H930" t="str">
         <v>https://www.yelp.com/biz/red-wok-buffet-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I930" t="str">
+        <v>http://www.redwokbuffet.com</v>
+      </c>
     </row>
     <row r="931">
       <c r="A931" t="str">
@@ -55591,6 +56419,9 @@
       <c r="H931" t="str">
         <v>https://www.yelp.com/biz/taqueria-tlaquepaque-phoenix-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I931" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="932">
       <c r="A932" t="str">
@@ -55617,6 +56448,9 @@
       <c r="H932" t="str">
         <v>https://www.yelp.com/biz/castaways-phoenix-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I932" t="str">
+        <v>http://www.castawaysaz.com/</v>
+      </c>
     </row>
     <row r="933">
       <c r="A933" t="str">
@@ -55643,6 +56477,9 @@
       <c r="H933" t="str">
         <v>https://www.yelp.com/biz/pei-wei-phoenix-4?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I933" t="str">
+        <v>https://www.peiwei.com/arizona/500-phoenix</v>
+      </c>
     </row>
     <row r="934">
       <c r="A934" t="str">
@@ -55669,6 +56506,9 @@
       <c r="H934" t="str">
         <v>https://www.yelp.com/biz/el-pacifico-botanas-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I934" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="935">
       <c r="A935" t="str">
@@ -55695,6 +56535,9 @@
       <c r="H935" t="str">
         <v>https://www.yelp.com/biz/treulichs-fine-steak-house-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I935" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="936">
       <c r="A936" t="str">
@@ -55721,6 +56564,9 @@
       <c r="H936" t="str">
         <v>https://www.yelp.com/biz/los-tio-s-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I936" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="937">
       <c r="A937" t="str">
@@ -55747,6 +56593,9 @@
       <c r="H937" t="str">
         <v>https://www.yelp.com/biz/pepes-deli-mex-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I937" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="938">
       <c r="A938" t="str">
@@ -55773,6 +56622,9 @@
       <c r="H938" t="str">
         <v>https://www.yelp.com/biz/smashburger-phoenix-14?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I938" t="str">
+        <v>https://smashburger.com/?utm_source=yelp&amp;utm_medium=organic</v>
+      </c>
     </row>
     <row r="939">
       <c r="A939" t="str">
@@ -55799,6 +56651,9 @@
       <c r="H939" t="str">
         <v>https://www.yelp.com/biz/cocos-bakery-restaurant-phoenix-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I939" t="str">
+        <v>http://www.cocosbakery.com/</v>
+      </c>
     </row>
     <row r="940">
       <c r="A940" t="str">
@@ -55825,6 +56680,9 @@
       <c r="H940" t="str">
         <v>https://www.yelp.com/biz/panda-express-phoenix-28?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I940" t="str">
+        <v>https://www.pandaexpress.com/?utm_source=yelp&amp;utm_medium=profile&amp;utm_campaign=3087&amp;utm_content=bpas</v>
+      </c>
     </row>
     <row r="941">
       <c r="A941" t="str">
@@ -55851,6 +56709,9 @@
       <c r="H941" t="str">
         <v>https://www.yelp.com/biz/chipotle-mexican-grill-phoenix-10?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I941" t="str">
+        <v>https://www.chipotle.com?utm_source=Yelp&amp;utm_medium=Yelp-listing&amp;utm_campaign=cmg_yelp_listings</v>
+      </c>
     </row>
     <row r="942">
       <c r="A942" t="str">
@@ -55877,6 +56738,9 @@
       <c r="H942" t="str">
         <v>https://www.yelp.com/biz/oasis-hospital-cafe-phoenix-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I942" t="str">
+        <v>http://www.oasishospital.com</v>
+      </c>
     </row>
     <row r="943">
       <c r="A943" t="str">
@@ -55903,6 +56767,9 @@
       <c r="H943" t="str">
         <v>https://www.yelp.com/biz/cristelas-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I943" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="944">
       <c r="A944" t="str">
@@ -55929,6 +56796,9 @@
       <c r="H944" t="str">
         <v>https://www.yelp.com/biz/autumn-court-chinese-restaurant-phoenix-3?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I944" t="str">
+        <v>https://www.autumncourt.com</v>
+      </c>
     </row>
     <row r="945">
       <c r="A945" t="str">
@@ -55955,6 +56825,9 @@
       <c r="H945" t="str">
         <v>https://www.yelp.com/biz/lous-bar-and-grill-phoenix-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I945" t="str">
+        <v>http://www.lousbarandgrill.com</v>
+      </c>
     </row>
     <row r="946">
       <c r="A946" t="str">
@@ -55981,6 +56854,9 @@
       <c r="H946" t="str">
         <v>https://www.yelp.com/biz/breakfast-club-cityscape-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I946" t="str">
+        <v>http://www.breakfastclub.us</v>
+      </c>
     </row>
     <row r="947">
       <c r="A947" t="str">
@@ -56007,6 +56883,9 @@
       <c r="H947" t="str">
         <v>https://www.yelp.com/biz/vals-getaway-des-cafeteria-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I947" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="948">
       <c r="A948" t="str">
@@ -56033,6 +56912,9 @@
       <c r="H948" t="str">
         <v>https://www.yelp.com/biz/santanas-mexican-food-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I948" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="949">
       <c r="A949" t="str">
@@ -56059,6 +56941,9 @@
       <c r="H949" t="str">
         <v>https://www.yelp.com/biz/pita-jungle-phoenix-19?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I949" t="str">
+        <v>http://www.pitajungle.com/locations/phoenix-sky-harbor-airport/</v>
+      </c>
     </row>
     <row r="950">
       <c r="A950" t="str">
@@ -56085,6 +56970,9 @@
       <c r="H950" t="str">
         <v>https://www.yelp.com/biz/la-madeleine-french-bakery-and-cafe-phoenix-4?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I950" t="str">
+        <v>https://lamadeleine.com?utm_source=yelp&amp;utm_medium=organic&amp;utm_campaign=2019-holiday</v>
+      </c>
     </row>
     <row r="951">
       <c r="A951" t="str">
@@ -56111,6 +56999,9 @@
       <c r="H951" t="str">
         <v>https://www.yelp.com/biz/linger-longer-lounge-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I951" t="str">
+        <v>https://lingerlongeraz.com</v>
+      </c>
     </row>
     <row r="952">
       <c r="A952" t="str">
@@ -56137,6 +57028,9 @@
       <c r="H952" t="str">
         <v>https://www.yelp.com/biz/tacolandia-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I952" t="str">
+        <v>http://www.tacolandiaphx.com</v>
+      </c>
     </row>
     <row r="953">
       <c r="A953" t="str">
@@ -56163,6 +57057,9 @@
       <c r="H953" t="str">
         <v>https://www.yelp.com/biz/the-teapot-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I953" t="str">
+        <v>http://www.theteapotus.com</v>
+      </c>
     </row>
     <row r="954">
       <c r="A954" t="str">
@@ -56189,6 +57086,9 @@
       <c r="H954" t="str">
         <v>https://www.yelp.com/biz/ichi-bowl-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I954" t="str">
+        <v>http://www.ichibowlaz.com</v>
+      </c>
     </row>
     <row r="955">
       <c r="A955" t="str">
@@ -56215,6 +57115,9 @@
       <c r="H955" t="str">
         <v>https://www.yelp.com/biz/federicos-mexican-food-phoenix-5?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I955" t="str">
+        <v>http://www.federicosmexicanfood.com/</v>
+      </c>
     </row>
     <row r="956">
       <c r="A956" t="str">
@@ -56241,6 +57144,9 @@
       <c r="H956" t="str">
         <v>https://www.yelp.com/biz/jersey-mikes-subs-phoenix-23?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I956" t="str">
+        <v>https://www.jerseymikes.com/9012</v>
+      </c>
     </row>
     <row r="957">
       <c r="A957" t="str">
@@ -56267,6 +57173,9 @@
       <c r="H957" t="str">
         <v>https://www.yelp.com/biz/palette-phoenix-4?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I957" t="str">
+        <v>http://www.phxart.org/palette/</v>
+      </c>
     </row>
     <row r="958">
       <c r="A958" t="str">
@@ -56293,6 +57202,9 @@
       <c r="H958" t="str">
         <v>https://www.yelp.com/biz/vaqueros-carne-asada-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I958" t="str">
+        <v>https://www.vaqueroscarneasada.com</v>
+      </c>
     </row>
     <row r="959">
       <c r="A959" t="str">
@@ -56319,6 +57231,9 @@
       <c r="H959" t="str">
         <v>https://www.yelp.com/biz/olive-and-ivy-phoenix-4?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I959" t="str">
+        <v>http://www.hmshost.com</v>
+      </c>
     </row>
     <row r="960">
       <c r="A960" t="str">
@@ -56345,6 +57260,9 @@
       <c r="H960" t="str">
         <v>https://www.yelp.com/biz/tacos-el-rancho-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I960" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="961">
       <c r="A961" t="str">
@@ -56371,6 +57289,9 @@
       <c r="H961" t="str">
         <v>https://www.yelp.com/biz/azteca-bakeries-and-restaurant-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I961" t="str">
+        <v>http://www.aztecabakeries.com</v>
+      </c>
     </row>
     <row r="962">
       <c r="A962" t="str">
@@ -56397,6 +57318,9 @@
       <c r="H962" t="str">
         <v>https://www.yelp.com/biz/vegan-invasion-delivery-and-catering-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I962" t="str">
+        <v>https://www.veganinvasion.com</v>
+      </c>
     </row>
     <row r="963">
       <c r="A963" t="str">
@@ -56423,6 +57347,9 @@
       <c r="H963" t="str">
         <v>https://www.yelp.com/biz/56th-st-deli-and-market-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I963" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="964">
       <c r="A964" t="str">
@@ -56449,6 +57376,9 @@
       <c r="H964" t="str">
         <v>https://www.yelp.com/biz/spoonz-cafe-phoenix-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I964" t="str">
+        <v>http://www.spoonzcafe.com</v>
+      </c>
     </row>
     <row r="965">
       <c r="A965" t="str">
@@ -56475,6 +57405,9 @@
       <c r="H965" t="str">
         <v>https://www.yelp.com/biz/froyoholic-cafe-phoenix-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I965" t="str">
+        <v>http://www.froyoholic.com</v>
+      </c>
     </row>
     <row r="966">
       <c r="A966" t="str">
@@ -56501,6 +57434,9 @@
       <c r="H966" t="str">
         <v>https://www.yelp.com/biz/asafiir-market-and-restaurant-phoenix-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I966" t="str">
+        <v>https://asafiir-market-and-restaurant.jimdosite.com</v>
+      </c>
     </row>
     <row r="967">
       <c r="A967" t="str">
@@ -56527,6 +57463,9 @@
       <c r="H967" t="str">
         <v>https://www.yelp.com/biz/w-xyz-bar-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I967" t="str">
+        <v>http://www.aloftphoenixairport.com/wxyz?EM=EM_YELP_STWD_WXYZLISTINGS_AL_3174_NAD_FM&amp;SWAQ=953P</v>
+      </c>
     </row>
     <row r="968">
       <c r="A968" t="str">
@@ -56553,6 +57492,9 @@
       <c r="H968" t="str">
         <v>https://www.yelp.com/biz/juanitas-carniceria-phoenix-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I968" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="969">
       <c r="A969" t="str">
@@ -56579,6 +57521,9 @@
       <c r="H969" t="str">
         <v>https://www.yelp.com/biz/long-wongs-famous-wings-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I969" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="970">
       <c r="A970" t="str">
@@ -56605,6 +57550,9 @@
       <c r="H970" t="str">
         <v>https://www.yelp.com/biz/los-mexican-friends-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I970" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="971">
       <c r="A971" t="str">
@@ -56631,6 +57579,9 @@
       <c r="H971" t="str">
         <v>https://www.yelp.com/biz/filibertos-mexican-food-phoenix-24?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I971" t="str">
+        <v>http://www.filibertos.com</v>
+      </c>
     </row>
     <row r="972">
       <c r="A972" t="str">
@@ -56657,6 +57608,9 @@
       <c r="H972" t="str">
         <v>https://www.yelp.com/biz/the-fountain-cafe-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I972" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="973">
       <c r="A973" t="str">
@@ -56683,6 +57637,9 @@
       <c r="H973" t="str">
         <v>https://www.yelp.com/biz/arts-all-american-cafe-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I973" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="974">
       <c r="A974" t="str">
@@ -56709,6 +57666,9 @@
       <c r="H974" t="str">
         <v>https://www.yelp.com/biz/ginos-pizza-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I974" t="str">
+        <v>http://ginospizza.com/</v>
+      </c>
     </row>
     <row r="975">
       <c r="A975" t="str">
@@ -56735,6 +57695,9 @@
       <c r="H975" t="str">
         <v>https://www.yelp.com/biz/bosa-donuts-phoenix-13?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I975" t="str">
+        <v>http://bosadonutsaz.com</v>
+      </c>
     </row>
     <row r="976">
       <c r="A976" t="str">
@@ -56761,6 +57724,9 @@
       <c r="H976" t="str">
         <v>https://www.yelp.com/biz/rosatis-pizza-phoenix-12?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I976" t="str">
+        <v>https://myrosatis.com/baseline/</v>
+      </c>
     </row>
     <row r="977">
       <c r="A977" t="str">
@@ -56787,6 +57753,9 @@
       <c r="H977" t="str">
         <v>https://www.yelp.com/biz/paradise-melts-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I977" t="str">
+        <v>http://paradisemelts.com</v>
+      </c>
     </row>
     <row r="978">
       <c r="A978" t="str">
@@ -56813,6 +57782,9 @@
       <c r="H978" t="str">
         <v>https://www.yelp.com/biz/wildflower-phoenix-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I978" t="str">
+        <v>http://www.wildflowerbread.com/location/arcadia-commons</v>
+      </c>
     </row>
     <row r="979">
       <c r="A979" t="str">
@@ -56839,6 +57811,9 @@
       <c r="H979" t="str">
         <v>https://www.yelp.com/biz/sushinola-roll-phoenix-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I979" t="str">
+        <v>http://sushinolaroll.mx</v>
+      </c>
     </row>
     <row r="980">
       <c r="A980" t="str">
@@ -56865,6 +57840,9 @@
       <c r="H980" t="str">
         <v>https://www.yelp.com/biz/sushi-to-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I980" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="981">
       <c r="A981" t="str">
@@ -56891,6 +57869,9 @@
       <c r="H981" t="str">
         <v>https://www.yelp.com/biz/krispy-krunchy-chicken-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I981" t="str">
+        <v>http://www.krispykrunchy.com/locations/wy-market</v>
+      </c>
     </row>
     <row r="982">
       <c r="A982" t="str">
@@ -56917,6 +57898,9 @@
       <c r="H982" t="str">
         <v>https://www.yelp.com/biz/el-pollo-loco-phoenix-14?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I982" t="str">
+        <v>http://www.elpolloloco.com/locations/store/3755</v>
+      </c>
     </row>
     <row r="983">
       <c r="A983" t="str">
@@ -56943,6 +57927,9 @@
       <c r="H983" t="str">
         <v>https://www.yelp.com/biz/la-abuelita-mexican-food-phoenix?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I983" t="str">
+        <v>http://laabuelitamexicanfoodphx.com</v>
+      </c>
     </row>
     <row r="984">
       <c r="A984" t="str">
@@ -56969,6 +57956,9 @@
       <c r="H984" t="str">
         <v>https://www.yelp.com/biz/el-wero-marisquero-phoenix-4?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I984" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="985">
       <c r="A985" t="str">
@@ -56995,6 +57985,9 @@
       <c r="H985" t="str">
         <v>https://www.yelp.com/biz/mol%C3%A9-phx-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I985" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="986">
       <c r="A986" t="str">
@@ -57021,6 +58014,9 @@
       <c r="H986" t="str">
         <v>https://www.yelp.com/biz/deez-buns-tempe?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I986" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="987">
       <c r="A987" t="str">
@@ -57047,6 +58043,9 @@
       <c r="H987" t="str">
         <v>https://www.yelp.com/biz/voodoo-daddys-steam-kitchen-tempe?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I987" t="str">
+        <v>http://voodoodaddy.com</v>
+      </c>
     </row>
     <row r="988">
       <c r="A988" t="str">
@@ -57073,6 +58072,9 @@
       <c r="H988" t="str">
         <v>https://www.yelp.com/biz/bonchon-tempe-w-elliot-rd-tempe?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I988" t="str">
+        <v>https://bonchon.com</v>
+      </c>
     </row>
     <row r="989">
       <c r="A989" t="str">
@@ -57099,6 +58101,9 @@
       <c r="H989" t="str">
         <v>https://www.yelp.com/biz/vietshack-tempe?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I989" t="str">
+        <v>https://vietshack.com</v>
+      </c>
     </row>
     <row r="990">
       <c r="A990" t="str">
@@ -57125,6 +58130,9 @@
       <c r="H990" t="str">
         <v>https://www.yelp.com/biz/hummus-xpress-tempe?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I990" t="str">
+        <v>http://www.hummusxpress.com/</v>
+      </c>
     </row>
     <row r="991">
       <c r="A991" t="str">
@@ -57151,6 +58159,9 @@
       <c r="H991" t="str">
         <v>https://www.yelp.com/biz/caf%C3%A9-lalibela-tempe-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I991" t="str">
+        <v>http://www.cafelalibela.com</v>
+      </c>
     </row>
     <row r="992">
       <c r="A992" t="str">
@@ -57177,6 +58188,9 @@
       <c r="H992" t="str">
         <v>https://www.yelp.com/biz/yatai-ramen-tempe?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I992" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="993">
       <c r="A993" t="str">
@@ -57203,6 +58217,9 @@
       <c r="H993" t="str">
         <v>https://www.yelp.com/biz/cafe-roma-tempe-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I993" t="str">
+        <v>http://caferomapizzeriatempe.com</v>
+      </c>
     </row>
     <row r="994">
       <c r="A994" t="str">
@@ -57229,6 +58246,9 @@
       <c r="H994" t="str">
         <v>https://www.yelp.com/biz/cornish-pasty-tempe-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I994" t="str">
+        <v>http://www.cornishpastyco.com/</v>
+      </c>
     </row>
     <row r="995">
       <c r="A995" t="str">
@@ -57255,6 +58275,9 @@
       <c r="H995" t="str">
         <v>https://www.yelp.com/biz/detroit-coney-grill-tempe?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I995" t="str">
+        <v>http://detroitconeygrill.com</v>
+      </c>
     </row>
     <row r="996">
       <c r="A996" t="str">
@@ -57281,6 +58304,9 @@
       <c r="H996" t="str">
         <v>https://www.yelp.com/biz/tokyo-stop-tempe?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I996" t="str">
+        <v>http://www.tokyo-stop.com/</v>
+      </c>
     </row>
     <row r="997">
       <c r="A997" t="str">
@@ -57307,6 +58333,9 @@
       <c r="H997" t="str">
         <v>https://www.yelp.com/biz/maskadores-taco-shop-tempe?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I997" t="str">
+        <v>Website Not Available</v>
+      </c>
     </row>
     <row r="998">
       <c r="A998" t="str">
@@ -57333,6 +58362,9 @@
       <c r="H998" t="str">
         <v>https://www.yelp.com/biz/chanpen-thai-cuisine-tempe-6?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I998" t="str">
+        <v>https://www.chanpenthaicuisine.net</v>
+      </c>
     </row>
     <row r="999">
       <c r="A999" t="str">
@@ -57359,6 +58391,9 @@
       <c r="H999" t="str">
         <v>https://www.yelp.com/biz/rainforest-cafe-tempe?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I999" t="str">
+        <v>http://www.rainforestcafe.com</v>
+      </c>
     </row>
     <row r="1000">
       <c r="A1000" t="str">
@@ -57385,6 +58420,9 @@
       <c r="H1000" t="str">
         <v>https://www.yelp.com/biz/top-of-the-rock-restaurant-tempe-2?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
       </c>
+      <c r="I1000" t="str">
+        <v>https://www.marriott.com/hotels/hotel-information/restaurant/phxtm-marriott-phoenix-resort-tempe-at-the-buttes/</v>
+      </c>
     </row>
     <row r="1001">
       <c r="A1001" t="str">
@@ -57410,6 +58448,9 @@
       </c>
       <c r="H1001" t="str">
         <v>https://www.yelp.com/biz/thai-elephant-bistro-tempe?adjust_creative=muf0b9IHSDXkMDaETfAOhw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=muf0b9IHSDXkMDaETfAOhw</v>
+      </c>
+      <c r="I1001" t="str">
+        <v>http://www.thaielephantaz.com</v>
       </c>
     </row>
   </sheetData>
